--- a/data/Unicrypt/Unicrypt20180701.xlsx
+++ b/data/Unicrypt/Unicrypt20180701.xlsx
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39">
@@ -1384,7 +1384,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54">
@@ -1528,7 +1528,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="62">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="65">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -2626,7 +2626,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="123">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3634,7 +3634,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
